--- a/trunk/Internal/EasiCab/Documents/Weekly Status/StatusReport.xlsx
+++ b/trunk/Internal/EasiCab/Documents/Weekly Status/StatusReport.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbhagava\EASi_App-POC\trunk\Internal\EasiCab\Documents\Weekly Status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="18195" windowHeight="7305"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -44,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Assigned To</t>
+  </si>
+  <si>
+    <t>gdhgshbfg</t>
   </si>
 </sst>
 </file>
@@ -382,6 +390,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -430,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,7 +476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,7 +705,9 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
